--- a/sellerflash-otomasyon-linkler/Small Appliance Parts & Accessories - Storage & Organization - Travel & To-Go Drinkware.xlsx
+++ b/sellerflash-otomasyon-linkler/Small Appliance Parts & Accessories - Storage & Organization - Travel & To-Go Drinkware.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB44ADF7-0B70-A34E-9CBD-048756F55B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D07073-5F30-0242-88B1-4EC5BA4AEC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{25314FB1-C2F4-634B-B284-FBA69CF20AAA}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16900" xr2:uid="{25314FB1-C2F4-634B-B284-FBA69CF20AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
